--- a/WALDO to ARAMIS Ghost Step Helper.xlsx
+++ b/WALDO to ARAMIS Ghost Step Helper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\administrators1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB82DF8F-96A3-467E-A11B-FE40C9A5B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A6C6F6-516A-4911-AD17-FC553B3D5CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2E313EC0-15D4-44F7-9F40-70B0F4F11FC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E313EC0-15D4-44F7-9F40-70B0F4F11FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="GHOST STEPS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="12">
   <si>
     <t>PRINT 1 STEPS</t>
   </si>
@@ -59,7 +59,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Changed from CONT_PL_CA to FIBER TELCO</t>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Changed from EVOLV4/25OTIP TO EVOLV4/10OTIP</t>
+  </si>
+  <si>
+    <t>Changed from EVOLV6/25OTIP TO EVOLV6/10OTIP</t>
+  </si>
+  <si>
+    <t>Changed from EVOLV8/25OTIP TO EVOLV8/10OTIP</t>
+  </si>
+  <si>
+    <t>Splice Credits Change</t>
+  </si>
+  <si>
+    <t>Cable Length Change</t>
   </si>
 </sst>
 </file>
@@ -502,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D3E47-7CF6-4FB3-B2F2-D80290EA53A8}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +550,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -557,10 +575,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -579,238 +600,1522 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>7</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
